--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhba-Bambi.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhba-Bambi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Bambi</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H2">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I2">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J2">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.6820245</v>
+        <v>2.7408105</v>
       </c>
       <c r="N2">
-        <v>7.364049</v>
+        <v>5.481621000000001</v>
       </c>
       <c r="O2">
-        <v>0.3530310071884286</v>
+        <v>0.310114013909743</v>
       </c>
       <c r="P2">
-        <v>0.272385881376442</v>
+        <v>0.237712561358214</v>
       </c>
       <c r="Q2">
-        <v>0.48481400692725</v>
+        <v>2.12319215071425</v>
       </c>
       <c r="R2">
-        <v>1.939256027709</v>
+        <v>8.492768602857</v>
       </c>
       <c r="S2">
-        <v>0.004017254347373464</v>
+        <v>0.009256604308897619</v>
       </c>
       <c r="T2">
-        <v>0.002438835885605268</v>
+        <v>0.005425850226705718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H3">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I3">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J3">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.807273</v>
       </c>
       <c r="O3">
-        <v>0.0577601993554047</v>
+        <v>0.06816240235758764</v>
       </c>
       <c r="P3">
-        <v>0.06684850263664005</v>
+        <v>0.07837307502717598</v>
       </c>
       <c r="Q3">
-        <v>0.07932151318216667</v>
+        <v>0.4666731304234999</v>
       </c>
       <c r="R3">
-        <v>0.475929079093</v>
+        <v>2.800038782540999</v>
       </c>
       <c r="S3">
-        <v>0.0006572720447804988</v>
+        <v>0.002034581989421782</v>
       </c>
       <c r="T3">
-        <v>0.0005985351601388706</v>
+        <v>0.001788885553519501</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H4">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I4">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J4">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.026952</v>
+        <v>2.400306</v>
       </c>
       <c r="N4">
-        <v>6.080856000000001</v>
+        <v>7.200918</v>
       </c>
       <c r="O4">
-        <v>0.1943433309807145</v>
+        <v>0.2715870098540704</v>
       </c>
       <c r="P4">
-        <v>0.2249223655468922</v>
+        <v>0.3122705239764784</v>
       </c>
       <c r="Q4">
-        <v>0.266889783316</v>
+        <v>1.859417445501</v>
       </c>
       <c r="R4">
-        <v>1.601338699896</v>
+        <v>11.156504673006</v>
       </c>
       <c r="S4">
-        <v>0.002211495804527465</v>
+        <v>0.008106610384874403</v>
       </c>
       <c r="T4">
-        <v>0.002013866261345913</v>
+        <v>0.007127654860266567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H5">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I5">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J5">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.571865</v>
+        <v>0.7135395</v>
       </c>
       <c r="N5">
-        <v>1.14373</v>
+        <v>1.427079</v>
       </c>
       <c r="O5">
-        <v>0.05483018294033913</v>
+        <v>0.0807347309958682</v>
       </c>
       <c r="P5">
-        <v>0.04230497435672658</v>
+        <v>0.0618858188755696</v>
       </c>
       <c r="Q5">
-        <v>0.07529775048249999</v>
+        <v>0.5527494387607499</v>
       </c>
       <c r="R5">
-        <v>0.30119100193</v>
+        <v>2.210997755043</v>
       </c>
       <c r="S5">
-        <v>0.000623930437551604</v>
+        <v>0.002409853877263186</v>
       </c>
       <c r="T5">
-        <v>0.0003787820759263434</v>
+        <v>0.001412559700073567</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H6">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I6">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J6">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.258302666666667</v>
+        <v>0.7968970000000001</v>
       </c>
       <c r="N6">
-        <v>6.774908</v>
+        <v>2.390691</v>
       </c>
       <c r="O6">
-        <v>0.2165251385344252</v>
+        <v>0.09016636770131771</v>
       </c>
       <c r="P6">
-        <v>0.2505943791009957</v>
+        <v>0.103673216558757</v>
       </c>
       <c r="Q6">
-        <v>0.2973518412713334</v>
+        <v>0.6173230346745</v>
       </c>
       <c r="R6">
-        <v>1.784111047628</v>
+        <v>3.703938208047</v>
       </c>
       <c r="S6">
-        <v>0.002463909788039638</v>
+        <v>0.002691379139107788</v>
       </c>
       <c r="T6">
-        <v>0.002243723358178934</v>
+        <v>0.002366367777767438</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H7">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I7">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J7">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.288179666666667</v>
+        <v>1.584096333333333</v>
       </c>
       <c r="N7">
-        <v>3.864539</v>
+        <v>4.752289</v>
       </c>
       <c r="O7">
-        <v>0.123510141000688</v>
+        <v>0.179235475181413</v>
       </c>
       <c r="P7">
-        <v>0.1429438969823033</v>
+        <v>0.206084804203805</v>
       </c>
       <c r="Q7">
-        <v>0.1696152607998333</v>
+        <v>1.2271336894355</v>
       </c>
       <c r="R7">
-        <v>1.017691564799</v>
+        <v>7.362802136612999</v>
       </c>
       <c r="S7">
-        <v>0.00140546195879869</v>
+        <v>0.005350006118570493</v>
       </c>
       <c r="T7">
-        <v>0.001279863346172886</v>
+        <v>0.00470393855175706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>18.204484</v>
       </c>
       <c r="I8">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J8">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.6820245</v>
+        <v>2.7408105</v>
       </c>
       <c r="N8">
-        <v>7.364049</v>
+        <v>5.481621000000001</v>
       </c>
       <c r="O8">
-        <v>0.3530310071884286</v>
+        <v>0.310114013909743</v>
       </c>
       <c r="P8">
-        <v>0.272385881376442</v>
+        <v>0.237712561358214</v>
       </c>
       <c r="Q8">
-        <v>22.343118699286</v>
+        <v>16.631680298094</v>
       </c>
       <c r="R8">
-        <v>134.058712195716</v>
+        <v>99.79008178856401</v>
       </c>
       <c r="S8">
-        <v>0.1851390212454338</v>
+        <v>0.07251010392995011</v>
       </c>
       <c r="T8">
-        <v>0.1685941378597595</v>
+        <v>0.06375377255814055</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>18.204484</v>
       </c>
       <c r="I9">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J9">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.807273</v>
       </c>
       <c r="O9">
-        <v>0.0577601993554047</v>
+        <v>0.06816240235758764</v>
       </c>
       <c r="P9">
-        <v>0.06684850263664005</v>
+        <v>0.07837307502717598</v>
       </c>
       <c r="Q9">
         <v>3.655608045792444</v>
@@ -1013,10 +1013,10 @@
         <v>32.900472412132</v>
       </c>
       <c r="S9">
-        <v>0.03029101285115465</v>
+        <v>0.0159375670152792</v>
       </c>
       <c r="T9">
-        <v>0.04137610074460683</v>
+        <v>0.0210194159341677</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>18.204484</v>
       </c>
       <c r="I10">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J10">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.026952</v>
+        <v>2.400306</v>
       </c>
       <c r="N10">
-        <v>6.080856000000001</v>
+        <v>7.200918</v>
       </c>
       <c r="O10">
-        <v>0.1943433309807145</v>
+        <v>0.2715870098540704</v>
       </c>
       <c r="P10">
-        <v>0.2249223655468922</v>
+        <v>0.3122705239764784</v>
       </c>
       <c r="Q10">
-        <v>12.29987175092267</v>
+        <v>14.565444057368</v>
       </c>
       <c r="R10">
-        <v>110.698845758304</v>
+        <v>131.088996516312</v>
       </c>
       <c r="S10">
-        <v>0.101918906132068</v>
+        <v>0.06350181361450667</v>
       </c>
       <c r="T10">
-        <v>0.1392164385067707</v>
+        <v>0.08374998716288853</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>18.204484</v>
       </c>
       <c r="I11">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J11">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.571865</v>
+        <v>0.7135395</v>
       </c>
       <c r="N11">
-        <v>1.14373</v>
+        <v>1.427079</v>
       </c>
       <c r="O11">
-        <v>0.05483018294033913</v>
+        <v>0.0807347309958682</v>
       </c>
       <c r="P11">
-        <v>0.04230497435672658</v>
+        <v>0.0618858188755696</v>
       </c>
       <c r="Q11">
-        <v>3.470169080886667</v>
+        <v>4.329872803706</v>
       </c>
       <c r="R11">
-        <v>20.82101448532</v>
+        <v>25.979236822236</v>
       </c>
       <c r="S11">
-        <v>0.02875443288998212</v>
+        <v>0.01887719829704557</v>
       </c>
       <c r="T11">
-        <v>0.02618480312859716</v>
+        <v>0.01659758490937236</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>18.204484</v>
       </c>
       <c r="I12">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J12">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.258302666666667</v>
+        <v>0.7968970000000001</v>
       </c>
       <c r="N12">
-        <v>6.774908</v>
+        <v>2.390691</v>
       </c>
       <c r="O12">
-        <v>0.2165251385344252</v>
+        <v>0.09016636770131771</v>
       </c>
       <c r="P12">
-        <v>0.2505943791009957</v>
+        <v>0.103673216558757</v>
       </c>
       <c r="Q12">
-        <v>13.70374492083022</v>
+        <v>4.835699562049334</v>
       </c>
       <c r="R12">
-        <v>123.333704287472</v>
+        <v>43.52129605844401</v>
       </c>
       <c r="S12">
-        <v>0.1135516467591728</v>
+        <v>0.02108248063536879</v>
       </c>
       <c r="T12">
-        <v>0.1551062157977477</v>
+        <v>0.0278048355168651</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>18.204484</v>
       </c>
       <c r="I13">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J13">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.288179666666667</v>
+        <v>1.584096333333333</v>
       </c>
       <c r="N13">
-        <v>3.864539</v>
+        <v>4.752289</v>
       </c>
       <c r="O13">
-        <v>0.123510141000688</v>
+        <v>0.179235475181413</v>
       </c>
       <c r="P13">
-        <v>0.1429438969823033</v>
+        <v>0.206084804203805</v>
       </c>
       <c r="Q13">
-        <v>7.816882043652889</v>
+        <v>9.612552118208445</v>
       </c>
       <c r="R13">
-        <v>70.35193839287601</v>
+        <v>86.51296906387601</v>
       </c>
       <c r="S13">
-        <v>0.06477206294388747</v>
+        <v>0.04190840255648937</v>
       </c>
       <c r="T13">
-        <v>0.08847559554946162</v>
+        <v>0.05527130606741202</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H14">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I14">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J14">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.6820245</v>
+        <v>2.7408105</v>
       </c>
       <c r="N14">
-        <v>7.364049</v>
+        <v>5.481621000000001</v>
       </c>
       <c r="O14">
-        <v>0.3530310071884286</v>
+        <v>0.310114013909743</v>
       </c>
       <c r="P14">
-        <v>0.272385881376442</v>
+        <v>0.237712561358214</v>
       </c>
       <c r="Q14">
-        <v>0.208719240807</v>
+        <v>2.030174980767</v>
       </c>
       <c r="R14">
-        <v>1.252315444842</v>
+        <v>12.181049884602</v>
       </c>
       <c r="S14">
-        <v>0.00172948443223966</v>
+        <v>0.008851071942999637</v>
       </c>
       <c r="T14">
-        <v>0.001574929665468957</v>
+        <v>0.007782215125424192</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H15">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I15">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J15">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.807273</v>
       </c>
       <c r="O15">
-        <v>0.0577601993554047</v>
+        <v>0.06816240235758764</v>
       </c>
       <c r="P15">
-        <v>0.06684850263664005</v>
+        <v>0.07837307502717598</v>
       </c>
       <c r="Q15">
-        <v>0.03414902575933333</v>
+        <v>0.4462281538028889</v>
       </c>
       <c r="R15">
-        <v>0.307341231834</v>
+        <v>4.016053384226</v>
       </c>
       <c r="S15">
-        <v>0.0002829648488494185</v>
+        <v>0.001945446835725026</v>
       </c>
       <c r="T15">
-        <v>0.0003865166922845135</v>
+        <v>0.002565771562165781</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H16">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I16">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J16">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.026952</v>
+        <v>2.400306</v>
       </c>
       <c r="N16">
-        <v>6.080856000000001</v>
+        <v>7.200918</v>
       </c>
       <c r="O16">
-        <v>0.1943433309807145</v>
+        <v>0.2715870098540704</v>
       </c>
       <c r="P16">
-        <v>0.2249223655468922</v>
+        <v>0.3122705239764784</v>
       </c>
       <c r="Q16">
-        <v>0.114899801072</v>
+        <v>1.777956260524</v>
       </c>
       <c r="R16">
-        <v>1.034098209648</v>
+        <v>16.001606344716</v>
       </c>
       <c r="S16">
-        <v>0.0009520800116612594</v>
+        <v>0.007751459318772197</v>
       </c>
       <c r="T16">
-        <v>0.001300496575436272</v>
+        <v>0.01022308783780187</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H17">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I17">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J17">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.571865</v>
+        <v>0.7135395</v>
       </c>
       <c r="N17">
-        <v>1.14373</v>
+        <v>1.427079</v>
       </c>
       <c r="O17">
-        <v>0.05483018294033913</v>
+        <v>0.0807347309958682</v>
       </c>
       <c r="P17">
-        <v>0.04230497435672658</v>
+        <v>0.0618858188755696</v>
       </c>
       <c r="Q17">
-        <v>0.03241673938999999</v>
+        <v>0.528533454133</v>
       </c>
       <c r="R17">
-        <v>0.19450043634</v>
+        <v>3.171200724798</v>
       </c>
       <c r="S17">
-        <v>0.000268610818543639</v>
+        <v>0.002304278040627759</v>
       </c>
       <c r="T17">
-        <v>0.0002446065074100961</v>
+        <v>0.002026013067845302</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H18">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I18">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J18">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.258302666666667</v>
+        <v>0.7968970000000001</v>
       </c>
       <c r="N18">
-        <v>6.774908</v>
+        <v>2.390691</v>
       </c>
       <c r="O18">
-        <v>0.2165251385344252</v>
+        <v>0.09016636770131771</v>
       </c>
       <c r="P18">
-        <v>0.2505943791009957</v>
+        <v>0.103673216558757</v>
       </c>
       <c r="Q18">
-        <v>0.1280141449626667</v>
+        <v>0.5902780771046667</v>
       </c>
       <c r="R18">
-        <v>1.152127304664</v>
+        <v>5.312502693942001</v>
       </c>
       <c r="S18">
-        <v>0.001060747777556969</v>
+        <v>0.002573469664597601</v>
       </c>
       <c r="T18">
-        <v>0.001448931639377055</v>
+        <v>0.003394045604469095</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H19">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I19">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J19">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.288179666666667</v>
+        <v>1.584096333333333</v>
       </c>
       <c r="N19">
-        <v>3.864539</v>
+        <v>4.752289</v>
       </c>
       <c r="O19">
-        <v>0.123510141000688</v>
+        <v>0.179235475181413</v>
       </c>
       <c r="P19">
-        <v>0.1429438969823033</v>
+        <v>0.206084804203805</v>
       </c>
       <c r="Q19">
-        <v>0.07302175258466666</v>
+        <v>1.173372892090889</v>
       </c>
       <c r="R19">
-        <v>0.657195773262</v>
+        <v>10.560356028818</v>
       </c>
       <c r="S19">
-        <v>0.0006050711176494546</v>
+        <v>0.005115622043543422</v>
       </c>
       <c r="T19">
-        <v>0.0008264987256958419</v>
+        <v>0.006746788100853197</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H20">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I20">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J20">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.6820245</v>
+        <v>2.7408105</v>
       </c>
       <c r="N20">
-        <v>7.364049</v>
+        <v>5.481621000000001</v>
       </c>
       <c r="O20">
-        <v>0.3530310071884286</v>
+        <v>0.310114013909743</v>
       </c>
       <c r="P20">
-        <v>0.272385881376442</v>
+        <v>0.237712561358214</v>
       </c>
       <c r="Q20">
-        <v>19.03493812449075</v>
+        <v>25.2310052179665</v>
       </c>
       <c r="R20">
-        <v>76.139752497963</v>
+        <v>100.924020871866</v>
       </c>
       <c r="S20">
-        <v>0.1577268536799309</v>
+        <v>0.110001080938378</v>
       </c>
       <c r="T20">
-        <v>0.0957544326586464</v>
+        <v>0.06447822225410128</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H21">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I21">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J21">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.807273</v>
       </c>
       <c r="O21">
-        <v>0.0577601993554047</v>
+        <v>0.06816240235758764</v>
       </c>
       <c r="P21">
-        <v>0.06684850263664005</v>
+        <v>0.07837307502717598</v>
       </c>
       <c r="Q21">
-        <v>3.114349160275167</v>
+        <v>5.545721419909667</v>
       </c>
       <c r="R21">
-        <v>18.686094961651</v>
+        <v>33.274328519458</v>
       </c>
       <c r="S21">
-        <v>0.02580604628700775</v>
+        <v>0.02417800422548308</v>
       </c>
       <c r="T21">
-        <v>0.0234998980553076</v>
+        <v>0.02125826469357082</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H22">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I22">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J22">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.026952</v>
+        <v>2.400306</v>
       </c>
       <c r="N22">
-        <v>6.080856000000001</v>
+        <v>7.200918</v>
       </c>
       <c r="O22">
-        <v>0.1943433309807145</v>
+        <v>0.2715870098540704</v>
       </c>
       <c r="P22">
-        <v>0.2249223655468922</v>
+        <v>0.3122705239764784</v>
       </c>
       <c r="Q22">
-        <v>10.478720579212</v>
+        <v>22.096432135938</v>
       </c>
       <c r="R22">
-        <v>62.87232347527201</v>
+        <v>132.578592815628</v>
       </c>
       <c r="S22">
-        <v>0.08682852640449384</v>
+        <v>0.09633510035913621</v>
       </c>
       <c r="T22">
-        <v>0.07906912574304245</v>
+        <v>0.08470165873152458</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H23">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I23">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J23">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.571865</v>
+        <v>0.7135395</v>
       </c>
       <c r="N23">
-        <v>1.14373</v>
+        <v>1.427079</v>
       </c>
       <c r="O23">
-        <v>0.05483018294033913</v>
+        <v>0.0807347309958682</v>
       </c>
       <c r="P23">
-        <v>0.04230497435672658</v>
+        <v>0.0618858188755696</v>
       </c>
       <c r="Q23">
-        <v>2.9563667733775</v>
+        <v>6.568611309583501</v>
       </c>
       <c r="R23">
-        <v>11.82546709351</v>
+        <v>26.274445238334</v>
       </c>
       <c r="S23">
-        <v>0.02449697637255636</v>
+        <v>0.02863755677097331</v>
       </c>
       <c r="T23">
-        <v>0.01487187514160669</v>
+        <v>0.01678618732235603</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H24">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I24">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J24">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.258302666666667</v>
+        <v>0.7968970000000001</v>
       </c>
       <c r="N24">
-        <v>6.774908</v>
+        <v>2.390691</v>
       </c>
       <c r="O24">
-        <v>0.2165251385344252</v>
+        <v>0.09016636770131771</v>
       </c>
       <c r="P24">
-        <v>0.2505943791009957</v>
+        <v>0.103673216558757</v>
       </c>
       <c r="Q24">
-        <v>11.67473261689933</v>
+        <v>7.335973196681001</v>
       </c>
       <c r="R24">
-        <v>70.048395701396</v>
+        <v>44.01583918008601</v>
       </c>
       <c r="S24">
-        <v>0.09673889303841705</v>
+        <v>0.03198306902157249</v>
       </c>
       <c r="T24">
-        <v>0.08809385595540235</v>
+        <v>0.02812078865701946</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H25">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I25">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J25">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.288179666666667</v>
+        <v>1.584096333333333</v>
       </c>
       <c r="N25">
-        <v>3.864539</v>
+        <v>4.752289</v>
       </c>
       <c r="O25">
-        <v>0.123510141000688</v>
+        <v>0.179235475181413</v>
       </c>
       <c r="P25">
-        <v>0.1429438969823033</v>
+        <v>0.206084804203805</v>
       </c>
       <c r="Q25">
-        <v>6.659494049598834</v>
+        <v>14.58267284516567</v>
       </c>
       <c r="R25">
-        <v>39.956964297593</v>
+        <v>87.49603707099401</v>
       </c>
       <c r="S25">
-        <v>0.05518174194598528</v>
+        <v>0.06357692696273157</v>
       </c>
       <c r="T25">
-        <v>0.05025044502449844</v>
+        <v>0.0558993674239282</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H26">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I26">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J26">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.6820245</v>
+        <v>2.7408105</v>
       </c>
       <c r="N26">
-        <v>7.364049</v>
+        <v>5.481621000000001</v>
       </c>
       <c r="O26">
-        <v>0.3530310071884286</v>
+        <v>0.310114013909743</v>
       </c>
       <c r="P26">
-        <v>0.272385881376442</v>
+        <v>0.237712561358214</v>
       </c>
       <c r="Q26">
-        <v>0.5332246513825001</v>
+        <v>23.8179968095545</v>
       </c>
       <c r="R26">
-        <v>3.199347908295</v>
+        <v>142.907980857327</v>
       </c>
       <c r="S26">
-        <v>0.004418393483450832</v>
+        <v>0.1038407059966116</v>
       </c>
       <c r="T26">
-        <v>0.004023545306961836</v>
+        <v>0.09130088627069594</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H27">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I27">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J27">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.807273</v>
       </c>
       <c r="O27">
-        <v>0.0577601993554047</v>
+        <v>0.06816240235758764</v>
       </c>
       <c r="P27">
-        <v>0.06684850263664005</v>
+        <v>0.07837307502717598</v>
       </c>
       <c r="Q27">
-        <v>0.08724208791277779</v>
+        <v>5.235145169405667</v>
       </c>
       <c r="R27">
-        <v>0.7851787912150001</v>
+        <v>47.11630652465099</v>
       </c>
       <c r="S27">
-        <v>0.0007229033236123802</v>
+        <v>0.0228239668823771</v>
       </c>
       <c r="T27">
-        <v>0.0009874519843022281</v>
+        <v>0.03010161166434152</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H28">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I28">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J28">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.026952</v>
+        <v>2.400306</v>
       </c>
       <c r="N28">
-        <v>6.080856000000001</v>
+        <v>7.200918</v>
       </c>
       <c r="O28">
-        <v>0.1943433309807145</v>
+        <v>0.2715870098540704</v>
       </c>
       <c r="P28">
-        <v>0.2249223655468922</v>
+        <v>0.3122705239764784</v>
       </c>
       <c r="Q28">
-        <v>0.2935398103866667</v>
+        <v>20.858968779474</v>
       </c>
       <c r="R28">
-        <v>2.64185829348</v>
+        <v>187.730719015266</v>
       </c>
       <c r="S28">
-        <v>0.002432322627963945</v>
+        <v>0.09094005939042589</v>
       </c>
       <c r="T28">
-        <v>0.003322438460296873</v>
+        <v>0.1199371856176498</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H29">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I29">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J29">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.571865</v>
+        <v>0.7135395</v>
       </c>
       <c r="N29">
-        <v>1.14373</v>
+        <v>1.427079</v>
       </c>
       <c r="O29">
-        <v>0.05483018294033913</v>
+        <v>0.0807347309958682</v>
       </c>
       <c r="P29">
-        <v>0.04230497435672658</v>
+        <v>0.0618858188755696</v>
       </c>
       <c r="Q29">
-        <v>0.08281653619166668</v>
+        <v>6.200750301595501</v>
       </c>
       <c r="R29">
-        <v>0.49689921715</v>
+        <v>37.204501809573</v>
       </c>
       <c r="S29">
-        <v>0.0006862324217053987</v>
+        <v>0.02703377173885945</v>
       </c>
       <c r="T29">
-        <v>0.0006249075031862852</v>
+        <v>0.02376916928009041</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H30">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I30">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J30">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.258302666666667</v>
+        <v>0.7968970000000001</v>
       </c>
       <c r="N30">
-        <v>6.774908</v>
+        <v>2.390691</v>
       </c>
       <c r="O30">
-        <v>0.2165251385344252</v>
+        <v>0.09016636770131771</v>
       </c>
       <c r="P30">
-        <v>0.2505943791009957</v>
+        <v>0.103673216558757</v>
       </c>
       <c r="Q30">
-        <v>0.3270436283488889</v>
+        <v>6.925137729713001</v>
       </c>
       <c r="R30">
-        <v>2.94339265514</v>
+        <v>62.32623956741701</v>
       </c>
       <c r="S30">
-        <v>0.002709941171238713</v>
+        <v>0.03019192574115643</v>
       </c>
       <c r="T30">
-        <v>0.003701652350289657</v>
+        <v>0.03981891617449954</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.690129000000001</v>
+      </c>
+      <c r="H31">
+        <v>26.070387</v>
+      </c>
+      <c r="I31">
+        <v>0.3348468670842908</v>
+      </c>
+      <c r="J31">
+        <v>0.3840810336190553</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.584096333333333</v>
+      </c>
+      <c r="N31">
+        <v>4.752289</v>
+      </c>
+      <c r="O31">
+        <v>0.179235475181413</v>
+      </c>
+      <c r="P31">
+        <v>0.206084804203805</v>
+      </c>
+      <c r="Q31">
+        <v>13.76600148509367</v>
+      </c>
+      <c r="R31">
+        <v>123.894013365843</v>
+      </c>
+      <c r="S31">
+        <v>0.06001643733486031</v>
+      </c>
+      <c r="T31">
+        <v>0.07915326461177803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.419613</v>
+      </c>
+      <c r="I32">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J32">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.7408105</v>
+      </c>
+      <c r="N32">
+        <v>5.481621000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.310114013909743</v>
+      </c>
+      <c r="P32">
+        <v>0.237712561358214</v>
+      </c>
+      <c r="Q32">
+        <v>1.2969634054455</v>
+      </c>
+      <c r="R32">
+        <v>7.781780432673001</v>
+      </c>
+      <c r="S32">
+        <v>0.005654446792905983</v>
+      </c>
+      <c r="T32">
+        <v>0.004971614923146384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.419613</v>
+      </c>
+      <c r="I33">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J33">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.6024243333333333</v>
+      </c>
+      <c r="N33">
+        <v>1.807273</v>
+      </c>
+      <c r="O33">
+        <v>0.06816240235758764</v>
+      </c>
+      <c r="P33">
+        <v>0.07837307502717598</v>
+      </c>
+      <c r="Q33">
+        <v>0.2850698050387778</v>
+      </c>
+      <c r="R33">
+        <v>2.565628245349</v>
+      </c>
+      <c r="S33">
+        <v>0.001242835409301442</v>
+      </c>
+      <c r="T33">
+        <v>0.001639125619410669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.419613</v>
+      </c>
+      <c r="I34">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J34">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.400306</v>
+      </c>
+      <c r="N34">
+        <v>7.200918</v>
+      </c>
+      <c r="O34">
+        <v>0.2715870098540704</v>
+      </c>
+      <c r="P34">
+        <v>0.3122705239764784</v>
+      </c>
+      <c r="Q34">
+        <v>1.135835200526</v>
+      </c>
+      <c r="R34">
+        <v>10.222516804734</v>
+      </c>
+      <c r="S34">
+        <v>0.004951966786354981</v>
+      </c>
+      <c r="T34">
+        <v>0.006530949766347109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.419613</v>
+      </c>
+      <c r="I35">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J35">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.7135395</v>
+      </c>
+      <c r="N35">
+        <v>1.427079</v>
+      </c>
+      <c r="O35">
+        <v>0.0807347309958682</v>
+      </c>
+      <c r="P35">
+        <v>0.0618858188755696</v>
+      </c>
+      <c r="Q35">
+        <v>0.3376499834045</v>
+      </c>
+      <c r="R35">
+        <v>2.025899900427</v>
+      </c>
+      <c r="S35">
+        <v>0.001472072271098909</v>
+      </c>
+      <c r="T35">
+        <v>0.00129430459583193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.1448183333333334</v>
-      </c>
-      <c r="H31">
-        <v>0.434455</v>
-      </c>
-      <c r="I31">
-        <v>0.01251559606233833</v>
-      </c>
-      <c r="J31">
-        <v>0.01477148994151142</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1.288179666666667</v>
-      </c>
-      <c r="N31">
-        <v>3.864539</v>
-      </c>
-      <c r="O31">
-        <v>0.123510141000688</v>
-      </c>
-      <c r="P31">
-        <v>0.1429438969823033</v>
-      </c>
-      <c r="Q31">
-        <v>0.1865520323605556</v>
-      </c>
-      <c r="R31">
-        <v>1.678968291245</v>
-      </c>
-      <c r="S31">
-        <v>0.001545803034367062</v>
-      </c>
-      <c r="T31">
-        <v>0.002111494336474538</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.419613</v>
+      </c>
+      <c r="I36">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J36">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.7968970000000001</v>
+      </c>
+      <c r="N36">
+        <v>2.390691</v>
+      </c>
+      <c r="O36">
+        <v>0.09016636770131771</v>
+      </c>
+      <c r="P36">
+        <v>0.103673216558757</v>
+      </c>
+      <c r="Q36">
+        <v>0.3770951136203334</v>
+      </c>
+      <c r="R36">
+        <v>3.393856022583</v>
+      </c>
+      <c r="S36">
+        <v>0.001644043499514614</v>
+      </c>
+      <c r="T36">
+        <v>0.002168262828136377</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.419613</v>
+      </c>
+      <c r="I37">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J37">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.584096333333333</v>
+      </c>
+      <c r="N37">
+        <v>4.752289</v>
+      </c>
+      <c r="O37">
+        <v>0.179235475181413</v>
+      </c>
+      <c r="P37">
+        <v>0.206084804203805</v>
+      </c>
+      <c r="Q37">
+        <v>0.7496012493507778</v>
+      </c>
+      <c r="R37">
+        <v>6.746411244157001</v>
+      </c>
+      <c r="S37">
+        <v>0.003268080165217841</v>
+      </c>
+      <c r="T37">
+        <v>0.004310139448076473</v>
       </c>
     </row>
   </sheetData>
